--- a/resources/excel/25072024-Disney's_Hollywood_Studios.xlsx
+++ b/resources/excel/25072024-Disney's_Hollywood_Studios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5457,6 +5457,838 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Alien Swirling Saucers</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Commissary Lane</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Meet Disney Stars at Red Carpet Dreams</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Echo Lake</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Meet Olaf at Celebrity Spotlight</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Hollywood Boulevard</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Mickey &amp; Minnie's Runaway Railway</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Star Wars: Galaxy's Edge</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Millennium Falcon: Smugglers Run</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Grand Avenue</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Muppet*Vision 3D</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sunset Boulevard</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Rock 'n' Roller Coaster Starring Aerosmith</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Slinky Dog Dash</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Echo Lake</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Star Tours – The Adventures Continue</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Animation Courtyard</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Star Wars Launch Bay: Meet Chewbacca</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Star Wars: Galaxy's Edge</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Star Wars: Rise of the Resistance</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Atração indisponível agora</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Toy Story Mania!</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>13:15:09</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sunset Boulevard</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>The Twilight Zone Tower of Terror</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Alien Swirling Saucers</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Commissary Lane</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Meet Disney Stars at Red Carpet Dreams</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Echo Lake</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Meet Olaf at Celebrity Spotlight</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Hollywood Boulevard</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Mickey &amp; Minnie's Runaway Railway</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Star Wars: Galaxy's Edge</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Millennium Falcon: Smugglers Run</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Grand Avenue</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Muppet*Vision 3D</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sunset Boulevard</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Rock 'n' Roller Coaster Starring Aerosmith</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Slinky Dog Dash</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Echo Lake</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Star Tours – The Adventures Continue</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Animation Courtyard</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Star Wars Launch Bay: Meet Chewbacca</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Star Wars: Galaxy's Edge</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Star Wars: Rise of the Resistance</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Toy Story Mania!</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>13:20:22</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Sunset Boulevard</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>The Twilight Zone Tower of Terror</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/excel/25072024-Disney's_Hollywood_Studios.xlsx
+++ b/resources/excel/25072024-Disney's_Hollywood_Studios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6289,6 +6289,422 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Alien Swirling Saucers</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Commissary Lane</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Meet Disney Stars at Red Carpet Dreams</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Echo Lake</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Meet Olaf at Celebrity Spotlight</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Hollywood Boulevard</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Mickey &amp; Minnie's Runaway Railway</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Star Wars: Galaxy's Edge</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Millennium Falcon: Smugglers Run</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Grand Avenue</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Muppet*Vision 3D</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Sunset Boulevard</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Rock 'n' Roller Coaster Starring Aerosmith</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Slinky Dog Dash</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Echo Lake</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Star Tours – The Adventures Continue</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Animation Courtyard</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Star Wars Launch Bay: Meet Chewbacca</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Star Wars: Galaxy's Edge</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Star Wars: Rise of the Resistance</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Atração indisponível agora</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Toy Story Land</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Toy Story Mania!</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>15:16:19</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Disney's Hollywood Studios</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Sunset Boulevard</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>The Twilight Zone Tower of Terror</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
